--- a/test123123123.xlsx
+++ b/test123123123.xlsx
@@ -14,36 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+  <si>
+    <t>TRANSACTION HASH</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>DIGITAL CERTIFICATE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>COURSE TITLE</t>
+  </si>
   <si>
     <t>SERIAL NUMBER</t>
   </si>
   <si>
+    <t>DATA HASH</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
     <t>NOTE</t>
   </si>
   <si>
-    <t>DIGITAL CERTIFICATE</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>COURSE TITLE</t>
-  </si>
-  <si>
-    <t>SIGNATURE</t>
-  </si>
-  <si>
     <t>CERTIFICATE</t>
   </si>
   <si>
-    <t>DATA HASH</t>
-  </si>
-  <si>
-    <t>TRANSACTION HASH</t>
+    <t/>
   </si>
   <si>
     <t>25.06.2015</t>
@@ -58,24 +61,21 @@
     <t>private link</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ginesis certificate</t>
   </si>
   <si>
+    <t>Nikita Magda</t>
+  </si>
+  <si>
+    <t>Cryptocurrencies and Distributed Systems</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
+  </si>
+  <si>
     <t>10.05.2016</t>
   </si>
   <si>
-    <t>Nikita Magda</t>
-  </si>
-  <si>
-    <t>Cryptocurrencies and Distributed Systems</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
-  </si>
-  <si>
     <t>Нестеров Максим</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>drive.google.com/file/d/1xd3b6fXkkagcyEeiMZ1P7kKH_BM1BRuv/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1tuaBB_KFOTHOfTmXgov42E2v6sHShUdb/view</t>
+  </si>
+  <si>
     <t>Daniyil Yakovlev</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1tuaBB_KFOTHOfTmXgov42E2v6sHShUdb/view</t>
-  </si>
-  <si>
     <t>Алексей Демидов</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>Синельников Александр</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1W0bokyIjw-j_5942KinD1ZRB1ges5fhb/view</t>
+  </si>
+  <si>
     <t>Скрипник Александр</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1W0bokyIjw-j_5942KinD1ZRB1ges5fhb/view</t>
-  </si>
-  <si>
     <t>Солонский Александр</t>
   </si>
   <si>
@@ -163,27 +163,27 @@
     <t>drive.google.com/file/d/1YHz2l23Dy_FAB_zBAXxkehxN9ZvR7T99/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1dhsj1ZCPOPwvKc6arWVDAveu1h0EoY_l/view</t>
+  </si>
+  <si>
     <t>Volodymyr Kavetskyy</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1dhsj1ZCPOPwvKc6arWVDAveu1h0EoY_l/view</t>
-  </si>
-  <si>
     <t>Vladyslav Minakov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1N0y-Y_QVKO2DDn06IuDVESkeKJ5LoiDN/view</t>
   </si>
   <si>
+    <t>Yevheniia Shchypeleva</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
   </si>
   <si>
     <t>03.03.2017</t>
   </si>
   <si>
-    <t>Yevheniia Shchypeleva</t>
-  </si>
-  <si>
     <t>Kolhatin Andrii</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Blockchain and Distributed Systems</t>
   </si>
   <si>
+    <t>Aleksandr Kurbatov</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1JYRb1u6DI1z4mB3s1z8SSiiGDwdh_IhH/view</t>
   </si>
   <si>
-    <t>Aleksandr Kurbatov</t>
-  </si>
-  <si>
     <t>Aleksandr Ivanov</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>Marina Osadchuk</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1fhholZTtNezUv9PasS5dDm2v55XQEkyG/view</t>
+  </si>
+  <si>
     <t>Konstantin Nechvolod</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1fhholZTtNezUv9PasS5dDm2v55XQEkyG/view</t>
-  </si>
-  <si>
     <t>Ilya Svetaylo</t>
   </si>
   <si>
@@ -241,16 +241,25 @@
     <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
   </si>
   <si>
+    <t>Petr Murzin</t>
+  </si>
+  <si>
+    <t>Basic Level in Decentralized Technologies</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
+  </si>
+  <si>
+    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
+  </si>
+  <si>
     <t>26.05.2020</t>
   </si>
   <si>
-    <t>Petr Murzin</t>
-  </si>
-  <si>
-    <t>Basic Level in Decentralized Technologies</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
+    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
   </si>
   <si>
     <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
@@ -259,13 +268,19 @@
     <t>6e70ac729189b0e0097a</t>
   </si>
   <si>
-    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
-  </si>
-  <si>
-    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
+    <t>80b4017b0b2d571867a2</t>
+  </si>
+  <si>
+    <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
+  </si>
+  <si>
+    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
+  </si>
+  <si>
+    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
   </si>
   <si>
     <t>28.05.2020</t>
@@ -277,43 +292,43 @@
     <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
   </si>
   <si>
-    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
-  </si>
-  <si>
-    <t>80b4017b0b2d571867a2</t>
-  </si>
-  <si>
-    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
-  </si>
-  <si>
-    <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
-  </si>
-  <si>
     <t>694d0f5a7afe6fbc99cb</t>
   </si>
   <si>
+    <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
+  </si>
+  <si>
+    <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
+  </si>
+  <si>
+    <t>30.05.2020</t>
+  </si>
+  <si>
+    <t>Nikita Moskovkin</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
+  </si>
+  <si>
     <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
   </si>
   <si>
-    <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
   </si>
   <si>
-    <t>30.05.2020</t>
-  </si>
-  <si>
-    <t>Nikita Moskovkin</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
-  </si>
-  <si>
-    <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
+    <t>2b6aadb041197def922a</t>
+  </si>
+  <si>
+    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
+  </si>
+  <si>
+    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
+  </si>
+  <si>
+    <t>03.06.2020</t>
   </si>
   <si>
     <t>Valeriy Gello</t>
@@ -322,67 +337,61 @@
     <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
   </si>
   <si>
-    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
-  </si>
-  <si>
-    <t>03.06.2020</t>
-  </si>
-  <si>
     <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
   </si>
   <si>
-    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
-  </si>
-  <si>
-    <t>2b6aadb041197def922a</t>
+    <t>72008d9bb1a357ae7d6e</t>
+  </si>
+  <si>
+    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
+  </si>
+  <si>
+    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
+  </si>
+  <si>
+    <t>21.08.2020</t>
   </si>
   <si>
     <t>Elizabeth Gurieva</t>
   </si>
   <si>
-    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
-  </si>
-  <si>
-    <t>21.08.2020</t>
-  </si>
-  <si>
     <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
   </si>
   <si>
-    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
   </si>
   <si>
-    <t>72008d9bb1a357ae7d6e</t>
+    <t>Alexander Zhovnuvaty</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
   </si>
   <si>
+    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
+  </si>
+  <si>
     <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
   </si>
   <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>Alexander Zhovnuvaty</t>
-  </si>
-  <si>
-    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
-  </si>
-  <si>
     <t>91053d5330c4b99d8827</t>
   </si>
   <si>
-    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
+    <t>508f78ad5c0df80128b0</t>
+  </si>
+  <si>
+    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
+  </si>
+  <si>
+    <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
   </si>
   <si>
     <t>Nikolay Scherbakov</t>
@@ -391,109 +400,115 @@
     <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
   </si>
   <si>
-    <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
-  </si>
-  <si>
-    <t>508f78ad5c0df80128b0</t>
-  </si>
-  <si>
     <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
   </si>
   <si>
-    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
   </si>
   <si>
+    <t>9976212738b45235cfd6</t>
+  </si>
+  <si>
+    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
+  </si>
+  <si>
+    <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
+  </si>
+  <si>
     <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
   </si>
   <si>
-    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
-  </si>
-  <si>
-    <t>9976212738b45235cfd6</t>
+    <t>16.09.2020</t>
   </si>
   <si>
     <t>Anonymous</t>
   </si>
   <si>
-    <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
-  </si>
-  <si>
-    <t>16.09.2020</t>
+    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
+  </si>
+  <si>
+    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d74</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
+  </si>
+  <si>
+    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
+  </si>
+  <si>
+    <t>17.09.2020</t>
   </si>
   <si>
     <t>Aleksandr Khomutov</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
-  </si>
-  <si>
-    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
-  </si>
-  <si>
-    <t>17.09.2020</t>
-  </si>
-  <si>
-    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
-  </si>
-  <si>
-    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
-  </si>
-  <si>
-    <t>cd9b18ee000a3ab57d74</t>
-  </si>
-  <si>
     <t>0f8a70da32b47c86fa69</t>
   </si>
   <si>
     <t>Listener only</t>
   </si>
   <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
+  </si>
+  <si>
+    <t>12.29.2021</t>
+  </si>
+  <si>
+    <t>Tetiana Diachuk</t>
+  </si>
+  <si>
+    <t>Beginner at theoretical aspects blockchain technology</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
+  </si>
+  <si>
     <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
   </si>
   <si>
-    <t>–</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
   </si>
   <si>
-    <t>12.29.2021</t>
-  </si>
-  <si>
-    <t>Tetiana Diachuk</t>
-  </si>
-  <si>
-    <t>Beginner at theoretical aspects blockchain technology</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
-  </si>
-  <si>
-    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
+    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
+  </si>
+  <si>
+    <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
   </si>
   <si>
     <t>Yatskiv Vasyl</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
-  </si>
-  <si>
     <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
   </si>
   <si>
     <t>157083727495af019be1</t>
   </si>
   <si>
-    <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
+    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
   </si>
   <si>
     <t>24.05.2022</t>
@@ -502,40 +517,31 @@
     <t>Viktoriia Kovalenko</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
-  </si>
-  <si>
-    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
-  </si>
-  <si>
-    <t>c94b544cf914bfa7a011</t>
-  </si>
-  <si>
-    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
+    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
+  </si>
+  <si>
+    <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
   </si>
   <si>
     <t>31e612cbb30ee1e0b131</t>
   </si>
   <si>
+    <t>Artem Lytvynov</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
+  </si>
+  <si>
     <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
   </si>
   <si>
-    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
   </si>
   <si>
-    <t>Artem Lytvynov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
-  </si>
-  <si>
-    <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
+    <t>Taras Horun</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
   </si>
   <si>
     <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
@@ -547,156 +553,156 @@
     <t>321d5bc0b6acda5a08db</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
-  </si>
-  <si>
     <t>HDWEh9ESydNwt1uGPeE27CIKeMKPy+O87vrhEELOeECTIKgu9VndiSLOpNThFwKWV+2oMh8SMAjRbBHZ8RxF8Qo=</t>
   </si>
   <si>
-    <t>Taras Horun</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
   </si>
   <si>
+    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
+  </si>
+  <si>
+    <t>Anastasiia Slota</t>
+  </si>
+  <si>
     <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
   </si>
   <si>
-    <t>Anastasiia Slota</t>
-  </si>
-  <si>
-    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
-  </si>
-  <si>
     <t>5d71857f9a99d5d85ed7</t>
   </si>
   <si>
+    <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
+  </si>
+  <si>
+    <t>4b973cdc099c10811c1b</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
   </si>
   <si>
-    <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
+    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
   </si>
   <si>
     <t>Yuriy Melnychuk</t>
   </si>
   <si>
-    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
-  </si>
-  <si>
-    <t>4b973cdc099c10811c1b</t>
+    <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
   </si>
   <si>
+    <t>Vladyslav Mazur</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
+  </si>
+  <si>
     <t>e9bf9426eb214a6e36c8</t>
   </si>
   <si>
-    <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
-  </si>
-  <si>
     <t>GxwV1QU9bkNovno07/2Qf5RnVqi33IIX/h2qm9QewYuqQO6/ULkKQG+dc47LvkhphEUWoWaEai8xaIVxIvH3mxQ=</t>
   </si>
   <si>
-    <t>Vladyslav Mazur</t>
+    <t>Hanna Zhurba</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
+  </si>
+  <si>
+    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
+  </si>
+  <si>
+    <t>33571c3c57728ede717b</t>
   </si>
   <si>
     <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
   </si>
   <si>
-    <t>Hanna Zhurba</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
-  </si>
-  <si>
-    <t>33571c3c57728ede717b</t>
-  </si>
-  <si>
-    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
+    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
+  </si>
+  <si>
+    <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
   </si>
   <si>
     <t>Viktoriia Holoshchapova</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
-  </si>
-  <si>
     <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
   </si>
   <si>
     <t>96250fd24ef42b3b059c</t>
   </si>
   <si>
-    <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
-  </si>
-  <si>
     <t>Nikita Liashko</t>
   </si>
   <si>
     <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
   </si>
   <si>
+    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
+  </si>
+  <si>
+    <t>638039974f462d2a16fa</t>
+  </si>
+  <si>
     <t>G22mibmMslmyD8rrY2ltE5Tcm9wjiNndNugd3f4Ant1qdwTC2A9jhFQ04ORFamlLGr+mI2MryPJAFIY7R3Zco1E=</t>
   </si>
   <si>
-    <t>638039974f462d2a16fa</t>
-  </si>
-  <si>
-    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
+    <t>27.05.2022</t>
+  </si>
+  <si>
+    <t>Oleksandr Ishchuk</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
   </si>
   <si>
     <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096f</t>
+  </si>
+  <si>
     <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
-  </si>
-  <si>
-    <t>a4f695eb1f54152d096f</t>
-  </si>
-  <si>
-    <t>Oleksandr Ishchuk</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
-  </si>
-  <si>
     <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
   </si>
   <si>
-    <t>27.05.2022</t>
+    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
+  </si>
+  <si>
+    <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
   </si>
   <si>
     <t>ef5d4d97d20b05335375</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
+  </si>
+  <si>
     <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
   </si>
   <si>
-    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
   </si>
   <si>
@@ -706,10 +712,16 @@
     <t>Sofiia Zharkikh</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
-  </si>
-  <si>
-    <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
+    <t>bde11c3468f03baaa52b</t>
+  </si>
+  <si>
+    <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
+  </si>
+  <si>
+    <t>Ruslan Ovsiienko</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
   </si>
   <si>
     <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
@@ -718,22 +730,22 @@
     <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
   </si>
   <si>
-    <t>bde11c3468f03baaa52b</t>
-  </si>
-  <si>
-    <t>Ruslan Ovsiienko</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
-  </si>
-  <si>
-    <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
+    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
+  </si>
+  <si>
+    <t>6ee400b0d85b1c17b9f9</t>
+  </si>
+  <si>
+    <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
   </si>
   <si>
-    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
+    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
   </si>
   <si>
     <t>31.05.2022</t>
@@ -742,16 +754,13 @@
     <t>Andrii Kolhatin</t>
   </si>
   <si>
-    <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
-  </si>
-  <si>
-    <t>6ee400b0d85b1c17b9f9</t>
-  </si>
-  <si>
-    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
+    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
+  </si>
+  <si>
+    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
   </si>
   <si>
     <t>02.06.2022</t>
@@ -760,22 +769,25 @@
     <t>Volodymyr Beimuk</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
-  </si>
-  <si>
     <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
   </si>
   <si>
     <t>57510c8d91044c68466c</t>
   </si>
   <si>
-    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
-  </si>
-  <si>
     <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
+    <t>d50fd6472811e70d2d32</t>
+  </si>
+  <si>
+    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
+  </si>
+  <si>
+    <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
   </si>
   <si>
     <t>03.06.2022</t>
@@ -787,19 +799,13 @@
     <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
   </si>
   <si>
-    <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
-  </si>
-  <si>
-    <t>d50fd6472811e70d2d32</t>
-  </si>
-  <si>
     <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
   </si>
   <si>
-    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
+    <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
   </si>
   <si>
     <t>Anton Balykov</t>
@@ -808,25 +814,31 @@
     <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
   </si>
   <si>
+    <t>0098c4abd0cf9ba00a9a</t>
+  </si>
+  <si>
+    <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
+  </si>
+  <si>
     <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
   </si>
   <si>
-    <t>0098c4abd0cf9ba00a9a</t>
-  </si>
-  <si>
-    <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
-  </si>
-  <si>
-    <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
+    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
+  </si>
+  <si>
+    <t>b8a9205fb544253703da</t>
+  </si>
+  <si>
+    <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
   </si>
   <si>
-    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
+    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
   </si>
   <si>
     <t>06.06.2022</t>
@@ -835,264 +847,252 @@
     <t>Rodion Nazarov</t>
   </si>
   <si>
-    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
-  </si>
-  <si>
-    <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
-  </si>
-  <si>
-    <t>b8a9205fb544253703da</t>
+    <t>Denis Riabtsev</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
   </si>
   <si>
+    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1zJtn8oPTgO6NalvQ4ZUKieHCmOl0G-ff/view</t>
+  </si>
+  <si>
+    <t>049024034fa09e3463c1</t>
+  </si>
+  <si>
+    <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
+  </si>
+  <si>
     <t>G1S1swtJ1BO++cjXv+2ur3abbjLyF3QJom9rXytmbiCybxHnE6zxdv8PGrIoWzul25aA+Vy+npC166DfktBmfTA=</t>
   </si>
   <si>
-    <t>Denis Riabtsev</t>
-  </si>
-  <si>
-    <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1zJtn8oPTgO6NalvQ4ZUKieHCmOl0G-ff/view</t>
-  </si>
-  <si>
-    <t>049024034fa09e3463c1</t>
-  </si>
-  <si>
-    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
+    <t>35a047ff48ee73cae02b</t>
+  </si>
+  <si>
+    <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
+  </si>
+  <si>
+    <t>10.08.2022</t>
+  </si>
+  <si>
+    <t>Ahadzhan Piloian</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
   </si>
   <si>
-    <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
-  </si>
-  <si>
-    <t>10.08.2022</t>
-  </si>
-  <si>
-    <t>Ahadzhan Piloian</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
-  </si>
-  <si>
-    <t>35a047ff48ee73cae02b</t>
-  </si>
-  <si>
     <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
   </si>
   <si>
+    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
+  </si>
+  <si>
+    <t>G3AD9cOvDB5Yle4mx/4BJ1WGbFOLohDQC7vc4BQ13IEBNfDge5QEuYe3jCrtupanAlQ3qTuMp0xOcnt4khjuiOU=</t>
+  </si>
+  <si>
     <t>6c856e21d4e81c9f9798</t>
   </si>
   <si>
+    <t>Andrii Tsemko</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
+  </si>
+  <si>
     <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
   </si>
   <si>
-    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
   </si>
   <si>
     <t>16.08.2022</t>
   </si>
   <si>
-    <t>Andrii Tsemko</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
-  </si>
-  <si>
-    <t>G3AD9cOvDB5Yle4mx/4BJ1WGbFOLohDQC7vc4BQ13IEBNfDge5QEuYe3jCrtupanAlQ3qTuMp0xOcnt4khjuiOU=</t>
+    <t>ac4a4970282596872599</t>
+  </si>
+  <si>
+    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
+  </si>
+  <si>
+    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
   </si>
   <si>
     <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
   </si>
   <si>
-    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
   </si>
   <si>
-    <t>ac4a4970282596872599</t>
+    <t>Oleg Chaika</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
   </si>
   <si>
-    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
-  </si>
-  <si>
-    <t>Oleg Chaika</t>
+    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
   </si>
   <si>
     <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
+  </si>
+  <si>
+    <t>Yehor Podporinov</t>
+  </si>
+  <si>
     <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
+    <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
   </si>
   <si>
     <t>6ece24bf393d6616d288</t>
   </si>
   <si>
-    <t>Yehor Podporinov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
-  </si>
-  <si>
-    <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
-  </si>
-  <si>
     <t>Artem Litkevych</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
   </si>
   <si>
+    <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
+  </si>
+  <si>
+    <t>2bdefe6ab583294a8e3a</t>
+  </si>
+  <si>
     <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
   </si>
   <si>
-    <t>2bdefe6ab583294a8e3a</t>
-  </si>
-  <si>
-    <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
+    <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
+  </si>
+  <si>
+    <t>17.08.2022</t>
+  </si>
+  <si>
+    <t>Vadim Mokropulo</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
+  </si>
+  <si>
+    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
   </si>
   <si>
     <t>5aedea6393611a0bb067</t>
   </si>
   <si>
-    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
-  </si>
-  <si>
     <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
-  </si>
-  <si>
-    <t>17.08.2022</t>
-  </si>
-  <si>
-    <t>Vadim Mokropulo</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
-  </si>
-  <si>
     <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
   </si>
   <si>
+    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
+  </si>
+  <si>
+    <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
+  </si>
+  <si>
     <t>843e73c99e2fb6868d38</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
+  </si>
+  <si>
     <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
   </si>
   <si>
-    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
   </si>
   <si>
     <t>Arsenii Trybukh</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
-  </si>
-  <si>
-    <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
-  </si>
-  <si>
     <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
   </si>
   <si>
+    <t>c7bb640e0ab9c66c1b1b</t>
+  </si>
+  <si>
+    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
+  </si>
+  <si>
+    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
+  </si>
+  <si>
     <t>18.08.2022</t>
   </si>
   <si>
     <t>Khrystyna Vysotska</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
-  </si>
-  <si>
-    <t>c7bb640e0ab9c66c1b1b</t>
-  </si>
-  <si>
-    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
-  </si>
-  <si>
-    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
+    <t>Mykhailo Shcholkin</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
+  </si>
+  <si>
+    <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
+  </si>
+  <si>
+    <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
   </si>
   <si>
     <t>de78c058c82cb70d7785</t>
   </si>
   <si>
-    <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
-  </si>
-  <si>
-    <t>Mykhailo Shcholkin</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
-  </si>
-  <si>
-    <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
+    <t>Sofiia Kireieva</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
+  </si>
+  <si>
+    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
+  </si>
+  <si>
+    <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
   </si>
   <si>
     <t>7a6968aff4e08534424f</t>
   </si>
   <si>
-    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
-  </si>
-  <si>
-    <t>Sofiia Kireieva</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
-  </si>
-  <si>
-    <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
+    <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
+  </si>
+  <si>
+    <t>4f789ed064df7a17fb16</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
+  </si>
+  <si>
+    <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
   </si>
   <si>
-    <t>4f789ed064df7a17fb16</t>
-  </si>
-  <si>
-    <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
-  </si>
-  <si>
-    <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
-  </si>
-  <si>
     <t>19.08.2022</t>
   </si>
   <si>
@@ -1105,19 +1105,28 @@
     <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
   </si>
   <si>
+    <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
+  </si>
+  <si>
+    <t>ae669584e3592816786d</t>
+  </si>
+  <si>
+    <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
+  </si>
+  <si>
     <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
   </si>
   <si>
-    <t>ae669584e3592816786d</t>
-  </si>
-  <si>
-    <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
-  </si>
-  <si>
-    <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
+    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
+  </si>
+  <si>
+    <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
+  </si>
+  <si>
+    <t>2a2bdf9afd29bb5a037e</t>
   </si>
   <si>
     <t>Mark Cherepovskyi</t>
@@ -1126,64 +1135,58 @@
     <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
   </si>
   <si>
-    <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
-  </si>
-  <si>
-    <t>2a2bdf9afd29bb5a037e</t>
-  </si>
-  <si>
     <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
   </si>
   <si>
-    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
   </si>
   <si>
+    <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
+  </si>
+  <si>
+    <t>Viacheslav Horbanov</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
+  </si>
+  <si>
     <t>5af15e5a89df1459f6c0</t>
   </si>
   <si>
-    <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
-  </si>
-  <si>
     <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
-  </si>
-  <si>
-    <t>Viacheslav Horbanov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
-  </si>
-  <si>
     <t>HDMS95fN4wKz+mcce/qhkAB3CDAxnQf5cwwRXHl8KMdYA3/EO8kyMpNGiIbN5MFTQ8vPw07FOmfXy0ioj0UnCj4=</t>
   </si>
   <si>
+    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
+  </si>
+  <si>
+    <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
+  </si>
+  <si>
+    <t>709946c77b1372ca3cff</t>
+  </si>
+  <si>
+    <t>Oleksii Stepaniuk</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
+  </si>
+  <si>
+    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
+  </si>
+  <si>
     <t>22.08.2022</t>
   </si>
   <si>
-    <t>Oleksii Stepaniuk</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
-  </si>
-  <si>
-    <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
-  </si>
-  <si>
-    <t>709946c77b1372ca3cff</t>
-  </si>
-  <si>
-    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
-  </si>
-  <si>
-    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
+    <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
   </si>
   <si>
     <t>Kyrylo Riabov</t>
@@ -1192,40 +1195,40 @@
     <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
   </si>
   <si>
+    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
+  </si>
+  <si>
+    <t>6393707ada82a5797951</t>
+  </si>
+  <si>
+    <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
+  </si>
+  <si>
     <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
   </si>
   <si>
-    <t>6393707ada82a5797951</t>
-  </si>
-  <si>
-    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
-  </si>
-  <si>
-    <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
-  </si>
-  <si>
     <t>b8536409d7a15f77c09c</t>
   </si>
   <si>
+    <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
+  </si>
+  <si>
+    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
+  </si>
+  <si>
+    <t>Oleksandr Kolesnyk</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
+  </si>
+  <si>
     <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
   </si>
   <si>
-    <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
   </si>
   <si>
-    <t>Oleksandr Kolesnyk</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
-  </si>
-  <si>
-    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
+    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
   </si>
   <si>
     <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
@@ -1234,105 +1237,111 @@
     <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
   </si>
   <si>
+    <t>23.08.2022</t>
+  </si>
+  <si>
+    <t>Nikita Chabaniuk</t>
+  </si>
+  <si>
+    <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
+  </si>
+  <si>
     <t>4b7f8d4f293f72815ab4</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
-  </si>
-  <si>
-    <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
-  </si>
-  <si>
-    <t>23.08.2022</t>
-  </si>
-  <si>
-    <t>Nikita Chabaniuk</t>
+    <t>Amina Yambulatova</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
   </si>
   <si>
     <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
+  </si>
+  <si>
     <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
+    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
   </si>
   <si>
     <t>8e1b8b35cb7330ddc76e</t>
   </si>
   <si>
-    <t>Amina Yambulatova</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
-  </si>
-  <si>
-    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
+    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
+  </si>
+  <si>
+    <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
   </si>
   <si>
     <t>Yegor Chukanov</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
-  </si>
-  <si>
     <t>95392bafab8d1e14ab55</t>
   </si>
   <si>
-    <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
-  </si>
-  <si>
     <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
   </si>
   <si>
+    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
+  </si>
+  <si>
+    <t>24.08.2022</t>
+  </si>
+  <si>
+    <t>Dmytro Vynohradov</t>
+  </si>
+  <si>
+    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
+  </si>
+  <si>
     <t>G2JfFYPk+Pp+65U01De1kmptKvks4kuSPI6m3hF2U+79HZCoD8lymFRpoPnVxZ2laFtkb2XA9J8nfBT2hffuYsw=</t>
   </si>
   <si>
-    <t>24.08.2022</t>
-  </si>
-  <si>
-    <t>Dmytro Vynohradov</t>
-  </si>
-  <si>
-    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
-  </si>
-  <si>
     <t>3dc98e4fdedc7c6b91f5</t>
   </si>
   <si>
-    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
+    <t>Mykhailo Sokolov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
   </si>
   <si>
+    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
+  </si>
+  <si>
+    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
+  </si>
+  <si>
     <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
   </si>
   <si>
-    <t>Mykhailo Sokolov</t>
-  </si>
-  <si>
-    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
-  </si>
-  <si>
-    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
-  </si>
-  <si>
     <t>5a875f69aae3c47635bc</t>
   </si>
   <si>
+    <t>c6e0a8f84ae9df426a28</t>
+  </si>
+  <si>
+    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
+  </si>
+  <si>
+    <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
+  </si>
+  <si>
     <t>25.08.2022</t>
   </si>
   <si>
@@ -1342,63 +1351,54 @@
     <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
   </si>
   <si>
-    <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
-  </si>
-  <si>
-    <t>c6e0a8f84ae9df426a28</t>
-  </si>
-  <si>
     <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
   </si>
   <si>
-    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
   </si>
   <si>
+    <t>26.08.2022</t>
+  </si>
+  <si>
+    <t>Mykola Gora</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
+  </si>
+  <si>
+    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
+  </si>
+  <si>
     <t>e17451aabeae8492dbe7</t>
   </si>
   <si>
-    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
-  </si>
-  <si>
     <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
-  </si>
-  <si>
-    <t>26.08.2022</t>
-  </si>
-  <si>
-    <t>Mykola Gora</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
-  </si>
-  <si>
     <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
   </si>
   <si>
+    <t>4cfdcdc672279489b68a</t>
+  </si>
+  <si>
+    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
+  </si>
+  <si>
+    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
+  </si>
+  <si>
     <t>Artem Levkin</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
   </si>
   <si>
-    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
-  </si>
-  <si>
-    <t>4cfdcdc672279489b68a</t>
-  </si>
-  <si>
     <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
   </si>
   <si>
-    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
   </si>
   <si>
@@ -1411,16 +1411,25 @@
     <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
   </si>
   <si>
+    <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
+  </si>
+  <si>
+    <t>34ea29020672eb21280c</t>
+  </si>
+  <si>
     <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
   </si>
   <si>
-    <t>34ea29020672eb21280c</t>
-  </si>
-  <si>
-    <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
+    <t>905fa9409eec8ceee94c</t>
+  </si>
+  <si>
+    <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
+  </si>
+  <si>
+    <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
   </si>
   <si>
     <t>Artem Zubrych</t>
@@ -1429,181 +1438,178 @@
     <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
   </si>
   <si>
-    <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
-  </si>
-  <si>
-    <t>905fa9409eec8ceee94c</t>
-  </si>
-  <si>
     <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
   </si>
   <si>
-    <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
   </si>
   <si>
     <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
   </si>
   <si>
+    <t>f4b8579fd5eced5139aa</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
+  </si>
+  <si>
+    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
+  </si>
+  <si>
     <t>30.08.2022</t>
   </si>
   <si>
     <t>Valentyna Lytvynova</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aa</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
+    <t>Eugene Petrikeev</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
   </si>
   <si>
     <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
+  </si>
+  <si>
+    <t>a3cfa3e5bbc7bf47c73a</t>
+  </si>
+  <si>
     <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
-  </si>
-  <si>
-    <t>a3cfa3e5bbc7bf47c73a</t>
-  </si>
-  <si>
-    <t>Eugene Petrikeev</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
-  </si>
-  <si>
     <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
+  </si>
+  <si>
+    <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
+  </si>
+  <si>
     <t>Yurii Poberezhnyi</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
-  </si>
-  <si>
     <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
   </si>
   <si>
-    <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
-  </si>
-  <si>
     <t>f58f1fc15134ceb66672</t>
   </si>
   <si>
+    <t>07.09.2022</t>
+  </si>
+  <si>
+    <t>Alina Telnova</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
+  </si>
+  <si>
+    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
+  </si>
+  <si>
     <t>0c95f06fcccbe19e0bb6</t>
   </si>
   <si>
-    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
-  </si>
-  <si>
     <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
-  </si>
-  <si>
-    <t>07.09.2022</t>
-  </si>
-  <si>
-    <t>Alina Telnova</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
-  </si>
-  <si>
     <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
   </si>
   <si>
+    <t>a7a0e0e2fed389ffbc84</t>
+  </si>
+  <si>
     <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
   </si>
   <si>
+    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
   </si>
   <si>
-    <t>a7a0e0e2fed389ffbc84</t>
+    <t>07.12.2022</t>
+  </si>
+  <si>
+    <t>Oleksandra Ivanova</t>
+  </si>
+  <si>
+    <t>Theory of database organization and basic SQL</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
   </si>
   <si>
     <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
-  </si>
-  <si>
-    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
-  </si>
-  <si>
-    <t>07.12.2022</t>
-  </si>
-  <si>
-    <t>Oleksandra Ivanova</t>
-  </si>
-  <si>
-    <t>Theory of database organization and basic SQL</t>
+    <t>https://drive.google.com/file/d/1yC_3aa9drhwIPYhMFRrPQgToiKtj2h3u/view</t>
+  </si>
+  <si>
+    <t>08.12.2022</t>
+  </si>
+  <si>
+    <t>Ilona Shevchenko</t>
   </si>
   <si>
     <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Anz-c-FUmgx6KDNyHfKee1N1Rp3nRIfm/view</t>
-  </si>
-  <si>
-    <t>08.12.2022</t>
-  </si>
-  <si>
-    <t>Ilona Shevchenko</t>
-  </si>
-  <si>
     <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
   </si>
   <si>
+    <t>Ievgeniia Bondar</t>
+  </si>
+  <si>
     <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1AsxyeUKo_CpQXqIgPAuHbIhEVbqcl8ae/view</t>
-  </si>
-  <si>
-    <t>Ievgeniia Bondar</t>
+    <t>https://drive.google.com/file/d/1Gvs5mnFc_pUSAkefP-wdI_PKpqHNunGA/view</t>
   </si>
   <si>
     <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
   </si>
   <si>
+    <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
+  </si>
+  <si>
+    <t>Sofia Golets</t>
+  </si>
+  <si>
     <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ztbiLeG00xO-8cfyCDDugkJRTcuIT9Vg/view</t>
-  </si>
-  <si>
-    <t>Sofia Golets</t>
-  </si>
-  <si>
-    <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
+    <t>https://drive.google.com/file/d/1opC3u_6X-o7t4UCd3tDNvdKjYZ5IWcYl/view</t>
+  </si>
+  <si>
+    <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
   </si>
   <si>
     <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1tLp3azn7Bn9Rujhp8Kg3D7Xhnt_v3Btd/view</t>
+    <t>https://drive.google.com/file/d/1tGIBNBqTx9nS-F6YIWIPtTXKQVIycS0w/view</t>
   </si>
   <si>
     <t>Mykyta Tsyvinskyi</t>
   </si>
   <si>
-    <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
+    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ByAEnHo8jsGhpf1mU4eLIbtT3guCIt-4/view</t>
   </si>
   <si>
     <t>Cryptography and information security theory</t>
@@ -1612,12 +1618,6 @@
     <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
-    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mcTDzD58EDbbnOtoHh8-bNLYs5yRNUFH/view</t>
-  </si>
-  <si>
     <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
   </si>
   <si>
@@ -1627,49 +1627,49 @@
     <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1H87CFQsTEtGSJ3gD-7-8Q96haeyb_51w/view</t>
+    <t>https://drive.google.com/file/d/1S-gL763IDaBy7atUxXl6rcVDu5Xwyrkv/view</t>
+  </si>
+  <si>
+    <t>Kateryna Hordiienko</t>
   </si>
   <si>
     <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1s_an0RllNxaEBJ7LelAiDXBjiUGdK9_0/view</t>
-  </si>
-  <si>
-    <t>Kateryna Hordiienko</t>
+    <t>https://drive.google.com/file/d/1CAkpSKsB7jW15d6uCjfXTjYVE2jcTTso/view</t>
   </si>
   <si>
     <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
+    <t>12.12.2022</t>
+  </si>
+  <si>
+    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1go5OFkDC_holnmn2Z1cL6QUWfhy58V2T/view</t>
+  </si>
+  <si>
     <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
-    <t>12.12.2022</t>
-  </si>
-  <si>
-    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1JEb06PZPaTONrsgj7w2d8F2UrZTAlX-V/view</t>
+    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
   </si>
   <si>
     <t>Yuliia Aritkulova</t>
   </si>
   <si>
-    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
-  </si>
-  <si>
     <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1P23jxi4UUaqIfHZzg4Zy-PHomANute8m/view</t>
+    <t>https://drive.google.com/file/d/1RvDxNsLA-bIf4CIc2DogPkcqjeOi0qll/view</t>
   </si>
   <si>
     <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1WPY5mAJsCiiM1qQrjRifmFMxkT2Cixd6/view</t>
+    <t>https://drive.google.com/file/d/1FIQnra5Ku18xQdAC8bvq3r1QVjYXL_RO/view</t>
   </si>
   <si>
     <t>Oleksandr Yevtushenko</t>
@@ -1678,117 +1678,93 @@
     <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
   </si>
   <si>
+    <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
+  </si>
+  <si>
+    <t>Mariia Mahdalina</t>
+  </si>
+  <si>
     <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1pjO2FiWZCPJoFEth0L3q9E6W6Mh0LR4M/view</t>
-  </si>
-  <si>
-    <t>Mariia Mahdalina</t>
-  </si>
-  <si>
-    <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
+    <t>https://drive.google.com/file/d/1S03BAhX9u5rK9ORk0LgYryVH-VoboVl7/view</t>
   </si>
   <si>
     <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1hpYOfJlIPh73wRAgbcJhzgvc5VYdnIup/view</t>
+    <t>https://drive.google.com/file/d/1JLa3d_bcRWAArF2QxstC3aMFXNwgg68b/view</t>
   </si>
   <si>
     <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
   </si>
   <si>
-    <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
-  </si>
-  <si>
     <t>13.12.2022</t>
   </si>
   <si>
     <t>Anastasia Andreeva</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1DqyYeDzqJh8sMqrLvUKs1esEQYVM19Bw/view</t>
-  </si>
-  <si>
-    <t>b8204a738e</t>
-  </si>
-  <si>
-    <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
+    <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
+  </si>
+  <si>
+    <t>Polina Reshetnikova</t>
+  </si>
+  <si>
     <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1o4VQMFGIw2mi8LuMmmEUfbwcPY1PMvzp/view</t>
-  </si>
-  <si>
-    <t>Polina Reshetnikova</t>
-  </si>
-  <si>
-    <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
+    <t>https://drive.google.com/file/d/11ZPPSMwqUatGTZ7sRShn72EKsYyEdKn1/view</t>
   </si>
   <si>
     <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/13ldih8OVpCxbZUujtToh7ayNNvr4v9gr/view</t>
-  </si>
-  <si>
     <t>93620030db08953cbf17468ffde46134834b7da10958b5174e935d4e324ce081</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1Il0gn0Qk0SQu55AWGSvHfKepUfCVU__C/view</t>
+  </si>
+  <si>
     <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1aAJ7wRcs8MPUbDJqx_frCuPMUqkSsv7v/view</t>
+    <t>https://drive.google.com/file/d/1A_MoPkS7R-7SMTEeCZOFHrkZVf4l_0ZR/view</t>
   </si>
   <si>
     <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
-    <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
-  </si>
-  <si>
     <t>14.12.2022</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1lfkL1W969YPMmNckrENCoCFujkVo-xP_/view</t>
-  </si>
-  <si>
-    <t>b94492feb3</t>
-  </si>
-  <si>
-    <t>b94492feb30efb7f94082666a936891a31a43de0e18af1aa8a110ef869532d93</t>
+    <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
+  </si>
+  <si>
+    <t>Pasha Charovatiy</t>
   </si>
   <si>
     <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1r2g8Ydt5SRYYvchokkLWJ6aCbYqv98Yj/view</t>
-  </si>
-  <si>
-    <t>Pasha Charovatiy</t>
-  </si>
-  <si>
-    <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1d8qVZx1YwEnEJJ5QNBIvGEZYfKi2Deb0/view</t>
+    <t>https://drive.google.com/file/d/1WQsC2pVdj2IbbHA46Qrj9CnsdKDLYWW5/view</t>
   </si>
   <si>
     <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1rxSzurdug6o3Dosw64atPJsFHMfswhBp/view</t>
+  </si>
+  <si>
+    <t>Dmytro Serhiienko</t>
+  </si>
+  <si>
     <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
   </si>
   <si>
-    <t>Dmytro Serhiienko</t>
-  </si>
-  <si>
     <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
   </si>
   <si>
@@ -1798,73 +1774,55 @@
     <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1aMpACI6I5QwchyL37yPJ0sgNgrVLDcBp/view</t>
+    <t>https://drive.google.com/file/d/16K2y7mPq6xNf2lE2gIZPL7dSFeersR80/view</t>
+  </si>
+  <si>
+    <t>Marina Rindina</t>
   </si>
   <si>
     <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1jWIGblhBEYUkyIZeNTU-Fs52tP9PcHA8/view</t>
-  </si>
-  <si>
-    <t>Marina Rindina</t>
+    <t>https://drive.google.com/file/d/1BdeiK_nQwUtyda3xnYKM1lsfZ8c0C033/view</t>
   </si>
   <si>
     <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
   </si>
   <si>
-    <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
-  </si>
-  <si>
     <t>15.12.2022</t>
   </si>
   <si>
     <t>Nazar Franko</t>
   </si>
   <si>
-    <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1HUQgRMm3fJRR6-vVYmBrTbX6sPCp-xg1/view</t>
-  </si>
-  <si>
-    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xKLF5Wvycl6wSh7caVp7DIqikD95BcLs/view</t>
-  </si>
-  <si>
     <t>Olha Drahomeretska</t>
   </si>
   <si>
-    <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
-  </si>
-  <si>
-    <t>ac2b88ac92</t>
+    <t>ac2b88ac92caf80b1207</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
+  </si>
+  <si>
+    <t>Maksym Cherniak</t>
   </si>
   <si>
     <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1trcej0Ko3FpRxQI8ymW57T5kSTjA753I/view</t>
-  </si>
-  <si>
-    <t>Maksym Cherniak</t>
-  </si>
-  <si>
-    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
+    <t>https://drive.google.com/file/d/1WGOU-9V2kEgI5WEAd5DJGfB4dQtz5x3g/view</t>
+  </si>
+  <si>
+    <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_469EaCzdayU2Sh7Xx2ni-pTOrtvEzfo/view</t>
   </si>
   <si>
     <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1fCbkQIOPSWRLkrXi8QPLALfxUWUw4dwU/view</t>
-  </si>
-  <si>
-    <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
   </si>
 </sst>
 </file>
@@ -2176,31 +2134,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -2208,80 +2166,80 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -2290,62 +2248,62 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -2354,190 +2312,190 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -2546,222 +2504,222 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -2770,16 +2728,16 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2790,28 +2748,28 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2822,28 +2780,28 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2854,28 +2812,28 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2883,31 +2841,31 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2918,10 +2876,10 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -2930,112 +2888,112 @@
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>14</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -3049,25 +3007,25 @@
         <v>60</v>
       </c>
       <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -3075,31 +3033,31 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -3113,25 +3071,25 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -3145,7 +3103,7 @@
         <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -3154,16 +3112,16 @@
         <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -3177,7 +3135,7 @@
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -3186,16 +3144,16 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -3209,25 +3167,25 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3241,25 +3199,25 @@
         <v>60</v>
       </c>
       <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3267,31 +3225,31 @@
         <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3305,25 +3263,25 @@
         <v>60</v>
       </c>
       <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3337,100 +3295,100 @@
         <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
         <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
       </c>
       <c r="F38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s">
         <v>78</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>81</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>82</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>79</v>
-      </c>
-      <c r="J38" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="I39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" t="s">
         <v>88</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I39" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" t="s">
-        <v>97</v>
-      </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
         <v>92</v>
@@ -3439,141 +3397,141 @@
         <v>22</v>
       </c>
       <c r="F40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" t="s">
         <v>98</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>93</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>94</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>99</v>
-      </c>
-      <c r="J40" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
       </c>
       <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" t="s">
         <v>101</v>
-      </c>
-      <c r="G41" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" t="s">
-        <v>105</v>
       </c>
       <c r="I41" t="s">
         <v>102</v>
       </c>
       <c r="J41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" t="s">
         <v>110</v>
       </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="J42" t="s">
         <v>114</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" t="s">
         <v>117</v>
       </c>
-      <c r="B43" t="s">
+      <c r="H43" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" t="s">
-        <v>119</v>
-      </c>
-      <c r="I43" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" t="s">
-        <v>126</v>
-      </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" t="s">
         <v>124</v>
-      </c>
-      <c r="G44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" t="s">
-        <v>128</v>
       </c>
       <c r="I44" t="s">
         <v>125</v>
@@ -3584,77 +3542,77 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
         <v>135</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
         <v>133</v>
-      </c>
-      <c r="C45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>130</v>
       </c>
       <c r="H45" t="s">
         <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
         <v>140</v>
       </c>
       <c r="H46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" t="s">
+        <v>137</v>
+      </c>
+      <c r="J46" t="s">
         <v>141</v>
-      </c>
-      <c r="I46" t="s">
-        <v>138</v>
-      </c>
-      <c r="J46" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
         <v>149</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>150</v>
-      </c>
-      <c r="C47" t="s">
-        <v>151</v>
       </c>
       <c r="D47" t="s">
         <v>144</v>
@@ -3663,65 +3621,65 @@
         <v>145</v>
       </c>
       <c r="F47" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" t="s">
         <v>152</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>146</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>147</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>153</v>
-      </c>
-      <c r="J47" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
         <v>145</v>
       </c>
       <c r="F48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" t="s">
         <v>155</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" t="s">
         <v>158</v>
       </c>
-      <c r="H48" t="s">
-        <v>147</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>156</v>
-      </c>
-      <c r="J48" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
         <v>161</v>
-      </c>
-      <c r="C49" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" t="s">
-        <v>164</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -3730,91 +3688,91 @@
         <v>162</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
         <v>171</v>
       </c>
-      <c r="C50" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" t="s">
         <v>167</v>
       </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>168</v>
       </c>
-      <c r="H50" t="s">
-        <v>169</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>173</v>
-      </c>
-      <c r="J50" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E51" t="s">
         <v>145</v>
       </c>
       <c r="F51" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" t="s">
         <v>177</v>
-      </c>
-      <c r="G51" t="s">
-        <v>174</v>
-      </c>
-      <c r="H51" t="s">
-        <v>147</v>
-      </c>
-      <c r="I51" t="s">
-        <v>178</v>
-      </c>
-      <c r="J51" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
         <v>185</v>
@@ -3826,45 +3784,45 @@
         <v>180</v>
       </c>
       <c r="G52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E53" t="s">
         <v>145</v>
       </c>
       <c r="F53" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G53" t="s">
         <v>189</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J53" t="s">
         <v>190</v>
@@ -3872,16 +3830,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
         <v>145</v>
@@ -3890,27 +3848,27 @@
         <v>195</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
         <v>202</v>
@@ -3919,16 +3877,16 @@
         <v>145</v>
       </c>
       <c r="F55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" t="s">
         <v>200</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" t="s">
         <v>203</v>
-      </c>
-      <c r="H55" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" t="s">
-        <v>198</v>
       </c>
       <c r="J55" t="s">
         <v>201</v>
@@ -3936,48 +3894,48 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E56" t="s">
         <v>145</v>
       </c>
       <c r="F56" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" t="s">
         <v>205</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" t="s">
         <v>208</v>
       </c>
-      <c r="H56" t="s">
-        <v>147</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>206</v>
-      </c>
-      <c r="J56" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
         <v>161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" t="s">
-        <v>164</v>
       </c>
       <c r="E57" t="s">
         <v>145</v>
@@ -3986,30 +3944,30 @@
         <v>162</v>
       </c>
       <c r="G57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
         <v>210</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
         <v>145</v>
@@ -4018,141 +3976,141 @@
         <v>211</v>
       </c>
       <c r="G58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I58" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
+      <c r="H59" t="s">
+        <v>222</v>
+      </c>
+      <c r="I59" t="s">
         <v>223</v>
       </c>
-      <c r="B59" t="s">
+      <c r="J59" t="s">
         <v>220</v>
-      </c>
-      <c r="C59" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" t="s">
-        <v>221</v>
-      </c>
-      <c r="G59" t="s">
-        <v>216</v>
-      </c>
-      <c r="H59" t="s">
-        <v>217</v>
-      </c>
-      <c r="I59" t="s">
-        <v>222</v>
-      </c>
-      <c r="J59" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" t="s">
         <v>228</v>
       </c>
-      <c r="B60" t="s">
+      <c r="H60" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" t="s">
+        <v>225</v>
+      </c>
+      <c r="J60" t="s">
         <v>229</v>
-      </c>
-      <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" t="s">
-        <v>224</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" t="s">
-        <v>230</v>
-      </c>
-      <c r="G60" t="s">
-        <v>225</v>
-      </c>
-      <c r="H60" t="s">
-        <v>226</v>
-      </c>
-      <c r="I60" t="s">
-        <v>231</v>
-      </c>
-      <c r="J60" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
         <v>145</v>
       </c>
       <c r="F61" t="s">
+        <v>235</v>
+      </c>
+      <c r="G61" t="s">
         <v>236</v>
       </c>
-      <c r="G61" t="s">
-        <v>232</v>
-      </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I61" t="s">
+        <v>233</v>
+      </c>
+      <c r="J61" t="s">
         <v>237</v>
-      </c>
-      <c r="J61" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
+        <v>241</v>
+      </c>
+      <c r="G62" t="s">
+        <v>242</v>
+      </c>
+      <c r="H62" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" t="s">
         <v>238</v>
-      </c>
-      <c r="G62" t="s">
-        <v>245</v>
-      </c>
-      <c r="H62" t="s">
-        <v>242</v>
-      </c>
-      <c r="I62" t="s">
-        <v>239</v>
       </c>
       <c r="J62" t="s">
         <v>243</v>
@@ -4160,287 +4118,287 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
       </c>
       <c r="F63" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" t="s">
+        <v>247</v>
+      </c>
+      <c r="H63" t="s">
+        <v>253</v>
+      </c>
+      <c r="I63" t="s">
+        <v>251</v>
+      </c>
+      <c r="J63" t="s">
         <v>248</v>
-      </c>
-      <c r="G63" t="s">
-        <v>251</v>
-      </c>
-      <c r="H63" t="s">
-        <v>252</v>
-      </c>
-      <c r="I63" t="s">
-        <v>249</v>
-      </c>
-      <c r="J63" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" t="s">
         <v>254</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>260</v>
+      </c>
+      <c r="G64" t="s">
+        <v>261</v>
+      </c>
+      <c r="H64" t="s">
         <v>255</v>
       </c>
-      <c r="C64" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" t="s">
-        <v>258</v>
-      </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>256</v>
       </c>
-      <c r="G64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H64" t="s">
-        <v>260</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>257</v>
-      </c>
-      <c r="J64" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" t="s">
         <v>262</v>
-      </c>
-      <c r="C65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" t="s">
-        <v>265</v>
-      </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>263</v>
-      </c>
-      <c r="G65" t="s">
-        <v>266</v>
       </c>
       <c r="H65" t="s">
         <v>267</v>
       </c>
       <c r="I65" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J65" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
         <v>272</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" t="s">
-        <v>276</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>269</v>
       </c>
       <c r="G66" t="s">
         <v>273</v>
       </c>
       <c r="H66" t="s">
+        <v>271</v>
+      </c>
+      <c r="I66" t="s">
+        <v>269</v>
+      </c>
+      <c r="J66" t="s">
         <v>274</v>
-      </c>
-      <c r="I66" t="s">
-        <v>270</v>
-      </c>
-      <c r="J66" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B67" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" t="s">
+        <v>281</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>278</v>
+      </c>
+      <c r="G67" t="s">
         <v>279</v>
       </c>
-      <c r="C67" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="H67" t="s">
         <v>282</v>
       </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>277</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
         <v>283</v>
       </c>
-      <c r="H67" t="s">
+      <c r="J67" t="s">
         <v>280</v>
-      </c>
-      <c r="I67" t="s">
-        <v>278</v>
-      </c>
-      <c r="J67" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E68" t="s">
         <v>145</v>
       </c>
       <c r="F68" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G68" t="s">
         <v>290</v>
       </c>
       <c r="H68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I68" t="s">
         <v>285</v>
       </c>
       <c r="J68" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" t="s">
+        <v>293</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
         <v>295</v>
       </c>
-      <c r="B69" t="s">
+      <c r="G69" t="s">
         <v>296</v>
       </c>
-      <c r="C69" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="H69" t="s">
         <v>291</v>
       </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
+        <v>292</v>
+      </c>
+      <c r="J69" t="s">
         <v>297</v>
-      </c>
-      <c r="G69" t="s">
-        <v>292</v>
-      </c>
-      <c r="H69" t="s">
-        <v>293</v>
-      </c>
-      <c r="I69" t="s">
-        <v>298</v>
-      </c>
-      <c r="J69" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B70" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" t="s">
+        <v>299</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="C70" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="G70" t="s">
         <v>302</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s">
-        <v>303</v>
-      </c>
-      <c r="G70" t="s">
-        <v>299</v>
       </c>
       <c r="H70" t="s">
         <v>300</v>
       </c>
       <c r="I70" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J70" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B71" t="s">
+        <v>309</v>
+      </c>
+      <c r="C71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" t="s">
+        <v>312</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>306</v>
+      </c>
+      <c r="G71" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" t="s">
         <v>310</v>
       </c>
-      <c r="C71" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" t="s">
-        <v>309</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="I71" t="s">
         <v>311</v>
-      </c>
-      <c r="G71" t="s">
-        <v>306</v>
-      </c>
-      <c r="H71" t="s">
-        <v>307</v>
-      </c>
-      <c r="I71" t="s">
-        <v>312</v>
       </c>
       <c r="J71" t="s">
         <v>308</v>
@@ -4448,16 +4406,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s">
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E72" t="s">
         <v>145</v>
@@ -4466,94 +4424,94 @@
         <v>314</v>
       </c>
       <c r="G72" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I72" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J72" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" t="s">
+        <v>324</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" t="s">
         <v>323</v>
       </c>
-      <c r="B73" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" t="s">
-        <v>319</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>325</v>
-      </c>
-      <c r="G73" t="s">
-        <v>320</v>
-      </c>
-      <c r="H73" t="s">
-        <v>321</v>
       </c>
       <c r="I73" t="s">
         <v>326</v>
       </c>
       <c r="J73" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
+        <v>330</v>
+      </c>
+      <c r="G74" t="s">
+        <v>331</v>
+      </c>
+      <c r="H74" t="s">
+        <v>327</v>
+      </c>
+      <c r="I74" t="s">
+        <v>328</v>
+      </c>
+      <c r="J74" t="s">
         <v>332</v>
-      </c>
-      <c r="G74" t="s">
-        <v>328</v>
-      </c>
-      <c r="H74" t="s">
-        <v>329</v>
-      </c>
-      <c r="I74" t="s">
-        <v>333</v>
-      </c>
-      <c r="J74" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
         <v>335</v>
-      </c>
-      <c r="B75" t="s">
-        <v>336</v>
-      </c>
-      <c r="C75" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" t="s">
-        <v>339</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -4562,80 +4520,80 @@
         <v>337</v>
       </c>
       <c r="G75" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H75" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I75" t="s">
         <v>334</v>
       </c>
       <c r="J75" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E76" t="s">
         <v>145</v>
       </c>
       <c r="F76" t="s">
+        <v>343</v>
+      </c>
+      <c r="G76" t="s">
+        <v>344</v>
+      </c>
+      <c r="H76" t="s">
+        <v>146</v>
+      </c>
+      <c r="I76" t="s">
         <v>346</v>
       </c>
-      <c r="G76" t="s">
-        <v>343</v>
-      </c>
-      <c r="H76" t="s">
-        <v>147</v>
-      </c>
-      <c r="I76" t="s">
-        <v>347</v>
-      </c>
       <c r="J76" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B77" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E77" t="s">
         <v>145</v>
       </c>
       <c r="F77" t="s">
+        <v>349</v>
+      </c>
+      <c r="G77" t="s">
+        <v>350</v>
+      </c>
+      <c r="H77" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" t="s">
         <v>352</v>
       </c>
-      <c r="G77" t="s">
-        <v>349</v>
-      </c>
-      <c r="H77" t="s">
-        <v>147</v>
-      </c>
-      <c r="I77" t="s">
-        <v>353</v>
-      </c>
       <c r="J77" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78">
@@ -4646,7 +4604,7 @@
         <v>360</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
         <v>355</v>
@@ -4655,19 +4613,19 @@
         <v>145</v>
       </c>
       <c r="F78" t="s">
+        <v>356</v>
+      </c>
+      <c r="G78" t="s">
         <v>357</v>
       </c>
-      <c r="G78" t="s">
-        <v>356</v>
-      </c>
       <c r="H78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I78" t="s">
+        <v>354</v>
+      </c>
+      <c r="J78" t="s">
         <v>358</v>
-      </c>
-      <c r="J78" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="79">
@@ -4678,28 +4636,28 @@
         <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
         <v>362</v>
       </c>
       <c r="G79" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H79" t="s">
         <v>366</v>
       </c>
       <c r="I79" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="J79" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80">
@@ -4707,28 +4665,28 @@
         <v>359</v>
       </c>
       <c r="B80" t="s">
+        <v>371</v>
+      </c>
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" t="s">
+        <v>370</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>372</v>
+      </c>
+      <c r="G80" t="s">
+        <v>373</v>
+      </c>
+      <c r="H80" t="s">
         <v>368</v>
       </c>
-      <c r="C80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" t="s">
-        <v>371</v>
-      </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
         <v>369</v>
-      </c>
-      <c r="G80" t="s">
-        <v>372</v>
-      </c>
-      <c r="H80" t="s">
-        <v>373</v>
-      </c>
-      <c r="I80" t="s">
-        <v>370</v>
       </c>
       <c r="J80" t="s">
         <v>374</v>
@@ -4739,266 +4697,266 @@
         <v>359</v>
       </c>
       <c r="B81" t="s">
+        <v>377</v>
+      </c>
+      <c r="C81" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" t="s">
         <v>379</v>
       </c>
-      <c r="C81" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>378</v>
+      </c>
+      <c r="G81" t="s">
         <v>375</v>
       </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>380</v>
-      </c>
-      <c r="G81" t="s">
-        <v>376</v>
-      </c>
-      <c r="H81" t="s">
-        <v>377</v>
       </c>
       <c r="I81" t="s">
         <v>381</v>
       </c>
       <c r="J81" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E82" t="s">
         <v>22</v>
       </c>
       <c r="F82" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G82" t="s">
         <v>387</v>
       </c>
       <c r="H82" t="s">
+        <v>382</v>
+      </c>
+      <c r="I82" t="s">
+        <v>383</v>
+      </c>
+      <c r="J82" t="s">
         <v>388</v>
-      </c>
-      <c r="I82" t="s">
-        <v>385</v>
-      </c>
-      <c r="J82" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H83" t="s">
         <v>395</v>
       </c>
       <c r="I83" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J83" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
         <v>397</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
+        <v>401</v>
+      </c>
+      <c r="G84" t="s">
         <v>402</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>398</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>399</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>403</v>
-      </c>
-      <c r="J84" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B85" t="s">
+        <v>408</v>
+      </c>
+      <c r="C85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" t="s">
         <v>410</v>
-      </c>
-      <c r="C85" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" t="s">
-        <v>406</v>
       </c>
       <c r="E85" t="s">
         <v>145</v>
       </c>
       <c r="F85" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G85" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I85" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J85" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B86" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" t="s">
+        <v>417</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>412</v>
+      </c>
+      <c r="G86" t="s">
+        <v>413</v>
+      </c>
+      <c r="H86" t="s">
         <v>415</v>
       </c>
-      <c r="C86" t="s">
-        <v>151</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="I86" t="s">
+        <v>416</v>
+      </c>
+      <c r="J86" t="s">
         <v>414</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" t="s">
-        <v>416</v>
-      </c>
-      <c r="G86" t="s">
-        <v>411</v>
-      </c>
-      <c r="H86" t="s">
-        <v>412</v>
-      </c>
-      <c r="I86" t="s">
-        <v>417</v>
-      </c>
-      <c r="J86" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B87" t="s">
+        <v>421</v>
+      </c>
+      <c r="C87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" t="s">
+        <v>422</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
         <v>418</v>
       </c>
-      <c r="C87" t="s">
-        <v>151</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="G87" t="s">
+        <v>419</v>
+      </c>
+      <c r="H87" t="s">
+        <v>423</v>
+      </c>
+      <c r="I87" t="s">
+        <v>416</v>
+      </c>
+      <c r="J87" t="s">
         <v>420</v>
-      </c>
-      <c r="E87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s">
-        <v>419</v>
-      </c>
-      <c r="G87" t="s">
-        <v>421</v>
-      </c>
-      <c r="H87" t="s">
-        <v>422</v>
-      </c>
-      <c r="I87" t="s">
-        <v>417</v>
-      </c>
-      <c r="J87" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B88" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F88" t="s">
         <v>424</v>
       </c>
       <c r="G88" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H88" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I88" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="J88" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D89" t="s">
         <v>438</v>
@@ -5007,48 +4965,48 @@
         <v>22</v>
       </c>
       <c r="F89" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H89" t="s">
         <v>436</v>
       </c>
       <c r="I89" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="J89" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>442</v>
+      </c>
+      <c r="B90" t="s">
+        <v>443</v>
+      </c>
+      <c r="C90" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" t="s">
         <v>439</v>
-      </c>
-      <c r="B90" t="s">
-        <v>440</v>
-      </c>
-      <c r="C90" t="s">
-        <v>151</v>
-      </c>
-      <c r="D90" t="s">
-        <v>443</v>
       </c>
       <c r="E90" t="s">
         <v>22</v>
       </c>
       <c r="F90" t="s">
+        <v>444</v>
+      </c>
+      <c r="G90" t="s">
+        <v>445</v>
+      </c>
+      <c r="H90" t="s">
+        <v>440</v>
+      </c>
+      <c r="I90" t="s">
         <v>441</v>
-      </c>
-      <c r="G90" t="s">
-        <v>444</v>
-      </c>
-      <c r="H90" t="s">
-        <v>445</v>
-      </c>
-      <c r="I90" t="s">
-        <v>442</v>
       </c>
       <c r="J90" t="s">
         <v>446</v>
@@ -5056,60 +5014,60 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B91" t="s">
+        <v>448</v>
+      </c>
+      <c r="C91" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" t="s">
         <v>452</v>
       </c>
-      <c r="C91" t="s">
-        <v>151</v>
-      </c>
-      <c r="D91" t="s">
-        <v>447</v>
-      </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
+        <v>449</v>
+      </c>
+      <c r="G91" t="s">
+        <v>450</v>
+      </c>
+      <c r="H91" t="s">
         <v>453</v>
-      </c>
-      <c r="G91" t="s">
-        <v>448</v>
-      </c>
-      <c r="H91" t="s">
-        <v>449</v>
       </c>
       <c r="I91" t="s">
         <v>454</v>
       </c>
       <c r="J91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B92" t="s">
+        <v>458</v>
+      </c>
+      <c r="C92" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" t="s">
         <v>455</v>
       </c>
-      <c r="C92" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" t="s">
-        <v>458</v>
-      </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
+        <v>459</v>
+      </c>
+      <c r="G92" t="s">
+        <v>460</v>
+      </c>
+      <c r="H92" t="s">
         <v>456</v>
-      </c>
-      <c r="G92" t="s">
-        <v>459</v>
-      </c>
-      <c r="H92" t="s">
-        <v>460</v>
       </c>
       <c r="I92" t="s">
         <v>457</v>
@@ -5126,10 +5084,10 @@
         <v>463</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E93" t="s">
         <v>145</v>
@@ -5138,16 +5096,16 @@
         <v>464</v>
       </c>
       <c r="G93" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I93" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J93" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94">
@@ -5155,25 +5113,25 @@
         <v>462</v>
       </c>
       <c r="B94" t="s">
+        <v>472</v>
+      </c>
+      <c r="C94" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" t="s">
         <v>469</v>
       </c>
-      <c r="C94" t="s">
-        <v>151</v>
-      </c>
-      <c r="D94" t="s">
-        <v>472</v>
-      </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F94" t="s">
+        <v>473</v>
+      </c>
+      <c r="G94" t="s">
+        <v>474</v>
+      </c>
+      <c r="H94" t="s">
         <v>470</v>
-      </c>
-      <c r="G94" t="s">
-        <v>473</v>
-      </c>
-      <c r="H94" t="s">
-        <v>474</v>
       </c>
       <c r="I94" t="s">
         <v>471</v>
@@ -5184,28 +5142,28 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>481</v>
+      </c>
+      <c r="B95" t="s">
+        <v>482</v>
+      </c>
+      <c r="C95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" t="s">
         <v>477</v>
-      </c>
-      <c r="B95" t="s">
-        <v>478</v>
-      </c>
-      <c r="C95" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" t="s">
-        <v>481</v>
       </c>
       <c r="E95" t="s">
         <v>145</v>
       </c>
       <c r="F95" t="s">
+        <v>478</v>
+      </c>
+      <c r="G95" t="s">
         <v>479</v>
       </c>
-      <c r="G95" t="s">
-        <v>482</v>
-      </c>
       <c r="H95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I95" t="s">
         <v>476</v>
@@ -5216,45 +5174,45 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B96" t="s">
+        <v>483</v>
+      </c>
+      <c r="C96" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" t="s">
         <v>487</v>
       </c>
-      <c r="C96" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" t="s">
-        <v>486</v>
-      </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
+        <v>484</v>
+      </c>
+      <c r="G96" t="s">
+        <v>485</v>
+      </c>
+      <c r="H96" t="s">
         <v>488</v>
-      </c>
-      <c r="G96" t="s">
-        <v>483</v>
-      </c>
-      <c r="H96" t="s">
-        <v>484</v>
       </c>
       <c r="I96" t="s">
         <v>489</v>
       </c>
       <c r="J96" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B97" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
         <v>495</v>
@@ -5263,243 +5221,243 @@
         <v>145</v>
       </c>
       <c r="F97" t="s">
+        <v>490</v>
+      </c>
+      <c r="G97" t="s">
         <v>491</v>
       </c>
-      <c r="G97" t="s">
-        <v>493</v>
-      </c>
       <c r="H97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I97" t="s">
+        <v>494</v>
+      </c>
+      <c r="J97" t="s">
         <v>492</v>
-      </c>
-      <c r="J97" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B98" t="s">
+        <v>497</v>
+      </c>
+      <c r="C98" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" t="s">
         <v>501</v>
-      </c>
-      <c r="C98" t="s">
-        <v>151</v>
-      </c>
-      <c r="D98" t="s">
-        <v>496</v>
       </c>
       <c r="E98" t="s">
         <v>22</v>
       </c>
       <c r="F98" t="s">
+        <v>498</v>
+      </c>
+      <c r="G98" t="s">
+        <v>499</v>
+      </c>
+      <c r="H98" t="s">
         <v>502</v>
-      </c>
-      <c r="G98" t="s">
-        <v>497</v>
-      </c>
-      <c r="H98" t="s">
-        <v>498</v>
       </c>
       <c r="I98" t="s">
         <v>503</v>
       </c>
       <c r="J98" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>508</v>
+      </c>
+      <c r="B99" t="s">
+        <v>509</v>
+      </c>
+      <c r="C99" t="s">
         <v>510</v>
       </c>
-      <c r="B99" t="s">
-        <v>511</v>
-      </c>
-      <c r="C99" t="s">
-        <v>512</v>
-      </c>
       <c r="D99" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E99" t="s">
         <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G99" t="s">
+        <v>512</v>
+      </c>
+      <c r="H99" t="s">
+        <v>505</v>
+      </c>
+      <c r="I99" t="s">
+        <v>506</v>
+      </c>
+      <c r="J99" t="s">
         <v>507</v>
-      </c>
-      <c r="H99" t="s">
-        <v>504</v>
-      </c>
-      <c r="I99" t="s">
-        <v>509</v>
-      </c>
-      <c r="J99" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>514</v>
+      </c>
+      <c r="B100" t="s">
         <v>515</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>510</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
         <v>516</v>
       </c>
-      <c r="C100" t="s">
-        <v>512</v>
-      </c>
-      <c r="D100" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>513</v>
-      </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I100" t="s">
         <v>517</v>
       </c>
       <c r="J100" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C101" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I101" t="s">
         <v>521</v>
       </c>
       <c r="J101" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B102" t="s">
+        <v>523</v>
+      </c>
+      <c r="C102" t="s">
+        <v>510</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
         <v>524</v>
       </c>
-      <c r="C102" t="s">
-        <v>512</v>
-      </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" t="s">
         <v>522</v>
       </c>
-      <c r="H102" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>525</v>
-      </c>
-      <c r="J102" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B103" t="s">
+        <v>529</v>
+      </c>
+      <c r="C103" t="s">
+        <v>510</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>527</v>
+      </c>
+      <c r="H103" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" t="s">
+        <v>526</v>
+      </c>
+      <c r="J103" t="s">
         <v>528</v>
-      </c>
-      <c r="C103" t="s">
-        <v>512</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>526</v>
-      </c>
-      <c r="H103" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" t="s">
-        <v>529</v>
-      </c>
-      <c r="J103" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B104" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C104" t="s">
+        <v>532</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
         <v>530</v>
       </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>532</v>
-      </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I104" t="s">
+        <v>533</v>
+      </c>
+      <c r="J104" t="s">
         <v>531</v>
-      </c>
-      <c r="J104" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="105">
@@ -5507,25 +5465,25 @@
         <v>535</v>
       </c>
       <c r="B105" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C105" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G105" t="s">
         <v>536</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I105" t="s">
         <v>534</v>
@@ -5539,92 +5497,92 @@
         <v>535</v>
       </c>
       <c r="B106" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C106" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I106" t="s">
         <v>541</v>
       </c>
       <c r="J106" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>542</v>
+      </c>
+      <c r="B107" t="s">
+        <v>377</v>
+      </c>
+      <c r="C107" t="s">
+        <v>510</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
         <v>543</v>
       </c>
-      <c r="B107" t="s">
-        <v>379</v>
-      </c>
-      <c r="C107" t="s">
-        <v>512</v>
-      </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" t="s">
+        <v>545</v>
+      </c>
+      <c r="J107" t="s">
         <v>544</v>
-      </c>
-      <c r="H107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" t="s">
-        <v>542</v>
-      </c>
-      <c r="J107" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B108" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C108" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G108" t="s">
         <v>548</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I108" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J108" t="s">
         <v>549</v>
@@ -5632,28 +5590,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B109" t="s">
         <v>552</v>
       </c>
       <c r="C109" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G109" t="s">
         <v>550</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I109" t="s">
         <v>553</v>
@@ -5664,60 +5622,60 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B110" t="s">
+        <v>555</v>
+      </c>
+      <c r="C110" t="s">
+        <v>510</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
         <v>556</v>
       </c>
-      <c r="C110" t="s">
-        <v>512</v>
-      </c>
-      <c r="D110" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" t="s">
         <v>554</v>
       </c>
-      <c r="H110" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>557</v>
-      </c>
-      <c r="J110" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C111" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G111" t="s">
         <v>558</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I111" t="s">
         <v>560</v>
@@ -5728,418 +5686,418 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>561</v>
+      </c>
+      <c r="B112" t="s">
         <v>562</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>510</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
         <v>563</v>
       </c>
-      <c r="C112" t="s">
-        <v>512</v>
-      </c>
-      <c r="D112" t="s">
-        <v>565</v>
-      </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>566</v>
-      </c>
-      <c r="H112" t="s">
-        <v>567</v>
-      </c>
       <c r="I112" t="s">
-        <v>561</v>
+        <v>10</v>
       </c>
       <c r="J112" t="s">
-        <v>564</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B113" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C113" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I113" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="J113" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B114" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C114" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I114" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J114" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C115" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
         <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I115" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J115" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B116" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D116" t="s">
-        <v>581</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>582</v>
+        <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I116" t="s">
-        <v>578</v>
+        <v>10</v>
       </c>
       <c r="J116" t="s">
-        <v>580</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B117" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C117" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="J117" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>574</v>
+      </c>
+      <c r="B118" t="s">
+        <v>581</v>
+      </c>
+      <c r="C118" t="s">
+        <v>510</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
         <v>579</v>
       </c>
-      <c r="B118" t="s">
-        <v>590</v>
-      </c>
-      <c r="C118" t="s">
-        <v>512</v>
-      </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>588</v>
-      </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I118" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="J118" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B119" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C119" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
         <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I119" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J119" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B120" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C120" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I120" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="J120" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B121" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C121" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>602</v>
+        <v>10</v>
       </c>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I121" t="s">
-        <v>599</v>
+        <v>10</v>
       </c>
       <c r="J121" t="s">
-        <v>603</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B122" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C122" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>604</v>
+        <v>10</v>
       </c>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I122" t="s">
-        <v>607</v>
+        <v>10</v>
       </c>
       <c r="J122" t="s">
-        <v>605</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B123" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="C123" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D123" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="E123" t="s">
         <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="H123" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="I123" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="J123" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>591</v>
+      </c>
+      <c r="B124" t="s">
+        <v>597</v>
+      </c>
+      <c r="C124" t="s">
+        <v>597</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>602</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" t="s">
         <v>600</v>
       </c>
-      <c r="B124" t="s">
-        <v>612</v>
-      </c>
-      <c r="C124" t="s">
-        <v>612</v>
-      </c>
-      <c r="D124" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>614</v>
-      </c>
-      <c r="H124" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" t="s">
-        <v>616</v>
-      </c>
       <c r="J124" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
